--- a/2.xlsx
+++ b/2.xlsx
@@ -3,14 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5ED886-4CD4-4FCE-8F16-CC429ABB4AAF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9964701-BDED-4C52-B635-21DAF095397E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,29 +22,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
-    <t>杭州</t>
+    <t>海曙区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宁波</t>
+    <t>江北区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>绍兴</t>
+    <t>镇海区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金华</t>
+    <t>北仑区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>温州</t>
+    <t>鄞州区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>嘉兴</t>
+    <t>奉化区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余姚市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慈溪市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁海县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>象山县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江东区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -50,7 +72,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,37 +88,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF3D3D3D"/>
+      <sz val="9"/>
+      <color rgb="FF4D4D4D"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF3D3D3D"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF454545"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft Yahei"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -109,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -117,17 +111,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -408,194 +410,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="C1">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="D1">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="E1">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="F1">
-        <v>2012</v>
-      </c>
-      <c r="G1">
-        <v>2013</v>
-      </c>
-      <c r="H1">
-        <v>2014</v>
-      </c>
-      <c r="I1">
-        <v>2015</v>
-      </c>
-      <c r="J1">
-        <v>2016</v>
-      </c>
-      <c r="K1">
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15">
+    <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>11776776</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12978152</v>
+      </c>
+      <c r="D2" s="1">
+        <v>13501381</v>
+      </c>
+      <c r="E2" s="1">
+        <v>13809663</v>
+      </c>
+      <c r="F2" s="1">
+        <v>15139128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10310947</v>
+      </c>
+      <c r="C3" s="1">
+        <v>11115621</v>
+      </c>
+      <c r="D3" s="1">
+        <v>11545696</v>
+      </c>
+      <c r="E3" s="1">
+        <v>12094215</v>
+      </c>
+      <c r="F3" s="1">
+        <v>14877483</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>9246310</v>
+      </c>
+      <c r="C4" s="1">
+        <v>9916627</v>
+      </c>
+      <c r="D4" s="1">
+        <v>11346360</v>
+      </c>
+      <c r="E4" s="1">
+        <v>11531348</v>
+      </c>
+      <c r="F4" s="1">
+        <v>14054745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>455.35</v>
-      </c>
-      <c r="C2" s="2">
-        <v>520.79</v>
-      </c>
-      <c r="D2" s="2">
-        <v>671.34</v>
-      </c>
-      <c r="E2" s="2">
-        <v>785.15</v>
-      </c>
-      <c r="F2" s="2">
-        <v>859.99</v>
-      </c>
-      <c r="G2" s="2">
-        <v>945.2</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1027.32</v>
-      </c>
-      <c r="I2">
-        <v>1233.8800000000001</v>
-      </c>
-      <c r="J2">
-        <v>1274.5</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1567.42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="14.4">
-      <c r="A3" t="s">
+      <c r="B5" s="1">
+        <v>5235221</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5410682</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5687225</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5951692</v>
+      </c>
+      <c r="F5" s="1">
+        <v>11644771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7496274</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8076820</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8396970</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8871092</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10232330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6115086</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6455513</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6632760</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7537150</v>
+      </c>
+      <c r="F7" s="1">
+        <v>9087241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2903589</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3092219</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3221487</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4882661</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5499262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3844796</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4098268</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4340728</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4653585</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5422034</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3638457</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3887036</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4100237</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4371354</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4989092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4324360</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4705624</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5058148</v>
+      </c>
+      <c r="E11">
+        <v>4056847</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="3">
-        <v>725.5</v>
-      </c>
-      <c r="G3" s="3">
-        <v>792.8</v>
-      </c>
-      <c r="H3" s="3">
-        <v>860.6</v>
-      </c>
-      <c r="I3">
-        <v>1006.31</v>
-      </c>
-      <c r="J3">
-        <v>1014</v>
-      </c>
-      <c r="K3">
-        <v>1245.07</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>195.64</v>
-      </c>
-      <c r="D4">
-        <v>228.5</v>
-      </c>
-      <c r="E4">
-        <v>270.89999999999998</v>
-      </c>
-      <c r="F4">
-        <v>279</v>
-      </c>
-      <c r="G4">
-        <v>324</v>
-      </c>
-      <c r="H4" s="4">
-        <v>352.53</v>
-      </c>
-      <c r="I4">
-        <v>403.07</v>
-      </c>
-      <c r="J4">
-        <v>386.88</v>
-      </c>
-      <c r="K4">
-        <v>465.35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <v>350.35</v>
-      </c>
-      <c r="J5">
-        <v>335.84</v>
-      </c>
-      <c r="K5">
-        <v>443.79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>362.89</v>
-      </c>
-      <c r="J6">
-        <v>332</v>
-      </c>
-      <c r="K6">
-        <v>431.36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5">
-        <v>129.28</v>
-      </c>
-      <c r="D7" s="5">
-        <v>155.93</v>
-      </c>
-      <c r="E7" s="5">
-        <v>185.77</v>
-      </c>
-      <c r="F7" s="5">
-        <v>214.89</v>
-      </c>
-      <c r="G7" s="5">
-        <v>242.5</v>
-      </c>
-      <c r="H7" s="5">
-        <v>268.87</v>
-      </c>
-      <c r="I7">
-        <v>309.69</v>
-      </c>
-      <c r="J7">
-        <v>330.43</v>
-      </c>
-      <c r="K7">
-        <v>357.71</v>
+      <c r="B12" s="1">
+        <v>2784261</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3033525</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3287417</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3700698</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4413665</v>
       </c>
     </row>
   </sheetData>
@@ -603,4 +661,511 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FF721D-E33F-43C3-92AF-5AD5A58CA38B}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>2013</v>
+      </c>
+      <c r="C1">
+        <v>2014</v>
+      </c>
+      <c r="D1">
+        <v>2015</v>
+      </c>
+      <c r="E1">
+        <v>2016</v>
+      </c>
+      <c r="F1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1486276</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1662205</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1895513</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2077753</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2416460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>845257</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1000151</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1122589</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1320963</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1573080</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1372018</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1530740</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1781005</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2073573</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2465896</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>380796</v>
+      </c>
+      <c r="C5" s="1">
+        <v>568843</v>
+      </c>
+      <c r="D5" s="1">
+        <v>650215</v>
+      </c>
+      <c r="E5" s="1">
+        <v>516477</v>
+      </c>
+      <c r="F5" s="1">
+        <v>930238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>563402</v>
+      </c>
+      <c r="C6" s="1">
+        <v>648070</v>
+      </c>
+      <c r="D6" s="1">
+        <v>750989</v>
+      </c>
+      <c r="E6" s="1">
+        <v>811633</v>
+      </c>
+      <c r="F6" s="1">
+        <v>906480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>395098</v>
+      </c>
+      <c r="C7" s="1">
+        <v>485703</v>
+      </c>
+      <c r="D7" s="1">
+        <v>589188</v>
+      </c>
+      <c r="E7" s="1">
+        <v>647147</v>
+      </c>
+      <c r="F7" s="1">
+        <v>704777</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>251778</v>
+      </c>
+      <c r="C8" s="1">
+        <v>290233</v>
+      </c>
+      <c r="D8" s="1">
+        <v>338192</v>
+      </c>
+      <c r="E8" s="1">
+        <v>370515</v>
+      </c>
+      <c r="F8" s="1">
+        <v>429354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>304075</v>
+      </c>
+      <c r="C9" s="1">
+        <v>360643</v>
+      </c>
+      <c r="D9" s="1">
+        <v>415712</v>
+      </c>
+      <c r="E9" s="1">
+        <v>487899</v>
+      </c>
+      <c r="F9" s="1">
+        <v>554779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>296226</v>
+      </c>
+      <c r="C10" s="1">
+        <v>331678</v>
+      </c>
+      <c r="D10" s="1">
+        <v>379485</v>
+      </c>
+      <c r="E10" s="1">
+        <v>380730</v>
+      </c>
+      <c r="F10" s="1">
+        <v>392698</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>466177</v>
+      </c>
+      <c r="C11" s="1">
+        <v>520622</v>
+      </c>
+      <c r="D11" s="1">
+        <v>600219</v>
+      </c>
+      <c r="E11" s="1">
+        <v>676630</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>404979</v>
+      </c>
+      <c r="C12" s="1">
+        <v>460899</v>
+      </c>
+      <c r="D12" s="1">
+        <v>542339</v>
+      </c>
+      <c r="E12" s="1">
+        <v>600080</v>
+      </c>
+      <c r="F12" s="1">
+        <v>650166</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C03D664-D898-4A30-9FB7-A8E6EF0F85D6}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>2013</v>
+      </c>
+      <c r="C1">
+        <v>2014</v>
+      </c>
+      <c r="D1">
+        <v>2015</v>
+      </c>
+      <c r="E1">
+        <v>2016</v>
+      </c>
+      <c r="F1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1594212</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1682225</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2128164</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2028490</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2012241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>983925</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1078856</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1254760</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1457152</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1514577</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1308206</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1464937</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1751973</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1716522</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2242966</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>258462</v>
+      </c>
+      <c r="C5" s="1">
+        <v>310694</v>
+      </c>
+      <c r="D5" s="1">
+        <v>368414</v>
+      </c>
+      <c r="E5" s="1">
+        <v>353682</v>
+      </c>
+      <c r="F5" s="1">
+        <v>741898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>745919</v>
+      </c>
+      <c r="C6" s="1">
+        <v>804673</v>
+      </c>
+      <c r="D6" s="1">
+        <v>925207</v>
+      </c>
+      <c r="E6" s="1">
+        <v>936884</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1026808</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>418686</v>
+      </c>
+      <c r="C7" s="1">
+        <v>438615</v>
+      </c>
+      <c r="D7" s="1">
+        <v>603057</v>
+      </c>
+      <c r="E7" s="1">
+        <v>611293</v>
+      </c>
+      <c r="F7" s="1">
+        <v>729307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>455230</v>
+      </c>
+      <c r="C8" s="1">
+        <v>476853</v>
+      </c>
+      <c r="D8" s="1">
+        <v>607125</v>
+      </c>
+      <c r="E8" s="1">
+        <v>630695</v>
+      </c>
+      <c r="F8" s="1">
+        <v>684824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>467116</v>
+      </c>
+      <c r="C9" s="1">
+        <v>509391</v>
+      </c>
+      <c r="D9" s="1">
+        <v>602519</v>
+      </c>
+      <c r="E9" s="1">
+        <v>677589</v>
+      </c>
+      <c r="F9" s="1">
+        <v>800286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>545353</v>
+      </c>
+      <c r="C10" s="1">
+        <v>527444</v>
+      </c>
+      <c r="D10" s="1">
+        <v>613051</v>
+      </c>
+      <c r="E10" s="1">
+        <v>613659</v>
+      </c>
+      <c r="F10" s="1">
+        <v>702706</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>302087</v>
+      </c>
+      <c r="C11" s="1">
+        <v>292354</v>
+      </c>
+      <c r="D11" s="1">
+        <v>357374</v>
+      </c>
+      <c r="E11" s="1">
+        <v>419382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>349283</v>
+      </c>
+      <c r="C12" s="1">
+        <v>383275</v>
+      </c>
+      <c r="D12" s="1">
+        <v>505251</v>
+      </c>
+      <c r="E12" s="1">
+        <v>506850</v>
+      </c>
+      <c r="F12" s="1">
+        <v>601931</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>